--- a/Data/Excel/Model/User/PlayerDetail.xlsx
+++ b/Data/Excel/Model/User/PlayerDetail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F813D70-0EE1-4B62-BED1-8CDAA4A6324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB4CB2-DAF1-4D0A-99FA-1930B13E8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="975" windowWidth="13785" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -78,19 +78,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StarCandy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccStarCandy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>pk, fk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccExp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1031,15 +1031,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,9 +1059,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1070,20 +1070,20 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1092,17 +1092,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
